--- a/project/data/DT_out/analysis.xlsx
+++ b/project/data/DT_out/analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Equal-Equal Size of Forest Test</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>SkewedSkewed</t>
+  </si>
+  <si>
+    <t>Percent of Training Set</t>
   </si>
 </sst>
 </file>
@@ -91,8 +94,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -147,7 +164,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -173,6 +190,13 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -198,6 +222,13 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -912,7 +943,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$35</c:f>
+              <c:f>Sheet1!$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -923,7 +954,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$36:$A$46</c:f>
+              <c:f>Sheet1!$A$27:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -965,7 +996,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$36:$C$46</c:f>
+              <c:f>Sheet1!$C$27:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1012,7 +1043,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$35</c:f>
+              <c:f>Sheet1!$D$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1023,7 +1054,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$36:$A$46</c:f>
+              <c:f>Sheet1!$A$27:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1065,7 +1096,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$36:$D$46</c:f>
+              <c:f>Sheet1!$D$27:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1112,7 +1143,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$35</c:f>
+              <c:f>Sheet1!$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1123,7 +1154,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$36:$A$46</c:f>
+              <c:f>Sheet1!$A$27:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1165,7 +1196,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$E$46</c:f>
+              <c:f>Sheet1!$E$27:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1212,7 +1243,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$35</c:f>
+              <c:f>Sheet1!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1223,7 +1254,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$36:$A$46</c:f>
+              <c:f>Sheet1!$A$27:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1265,7 +1296,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$36:$B$46</c:f>
+              <c:f>Sheet1!$B$27:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1419,6 +1450,406 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Metrics on Random</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Forest, Original Data, vs Percent of Training Sample Used</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$16:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$16:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.983388228555062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.980667334956322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.977087211800086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.985679507375053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$16:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$16:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.698929036132519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.703946694003075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.707291881842594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.707486520116134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.707327098962079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$16:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$16:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.822787793095322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.820528139562671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.821842184218421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.820713297648403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.823620916596864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$16:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$16:$Q$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.698929036132519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.699329396456811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.702832549294364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.701631468321489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.704934440996897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2077488632"/>
+        <c:axId val="2039033240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2077488632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent of Training Sample Used (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2039033240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2039033240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.65"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Metric Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2077488632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1429,10 +1860,10 @@
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1454,15 +1885,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1476,6 +1907,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1806,15 +2267,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A12:F46"/>
+  <dimension ref="A12:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1834,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1854,7 +2315,7 @@
         <v>0.72780707061975902</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1874,7 +2335,7 @@
         <v>0.73852701200834803</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1893,8 +2354,26 @@
       <c r="F15">
         <v>0.752415175897716</v>
       </c>
+      <c r="P15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1913,8 +2392,26 @@
       <c r="F16">
         <v>0.75025730630220899</v>
       </c>
+      <c r="P16">
+        <v>25</v>
+      </c>
+      <c r="Q16">
+        <v>0.698929036132519</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0.698929036132519</v>
+      </c>
+      <c r="T16">
+        <v>0.82278779309532202</v>
+      </c>
+      <c r="U16">
+        <v>0.74371099324770396</v>
+      </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>21</v>
       </c>
@@ -1933,8 +2430,26 @@
       <c r="F17">
         <v>0.74933822032172603</v>
       </c>
+      <c r="P17">
+        <v>50</v>
+      </c>
+      <c r="Q17">
+        <v>0.69932939645681103</v>
+      </c>
+      <c r="R17">
+        <v>0.98338822855506203</v>
+      </c>
+      <c r="S17">
+        <v>0.70394669400307497</v>
+      </c>
+      <c r="T17">
+        <v>0.82052813956267101</v>
+      </c>
+      <c r="U17">
+        <v>0.74636436754124702</v>
+      </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>51</v>
       </c>
@@ -1953,8 +2468,26 @@
       <c r="F18">
         <v>0.74822888283378697</v>
       </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>0.70283254929436401</v>
+      </c>
+      <c r="R18">
+        <v>0.98066733495632197</v>
+      </c>
+      <c r="S18">
+        <v>0.70729188184259395</v>
+      </c>
+      <c r="T18">
+        <v>0.82184218421842103</v>
+      </c>
+      <c r="U18">
+        <v>0.74905383824462302</v>
+      </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>101</v>
       </c>
@@ -1973,8 +2506,26 @@
       <c r="F19">
         <v>0.74897110380419396</v>
       </c>
+      <c r="P19">
+        <v>200</v>
+      </c>
+      <c r="Q19">
+        <v>0.70163146832148904</v>
+      </c>
+      <c r="R19">
+        <v>0.97708721180008595</v>
+      </c>
+      <c r="S19">
+        <v>0.707486520116134</v>
+      </c>
+      <c r="T19">
+        <v>0.82071329764840295</v>
+      </c>
+      <c r="U19">
+        <v>0.74880923637481001</v>
+      </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>201</v>
       </c>
@@ -1993,8 +2544,26 @@
       <c r="F20">
         <v>0.74520002568548105</v>
       </c>
+      <c r="P20">
+        <v>400</v>
+      </c>
+      <c r="Q20">
+        <v>0.70493444099689695</v>
+      </c>
+      <c r="R20">
+        <v>0.98567950737505305</v>
+      </c>
+      <c r="S20">
+        <v>0.70732709896207902</v>
+      </c>
+      <c r="T20">
+        <v>0.82362091659686398</v>
+      </c>
+      <c r="U20">
+        <v>0.74966780665258004</v>
+      </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>301</v>
       </c>
@@ -2014,7 +2583,7 @@
         <v>0.74392140984933997</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>401</v>
       </c>
@@ -2034,7 +2603,7 @@
         <v>0.74371099324770396</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>501</v>
       </c>
@@ -2054,243 +2623,243 @@
         <v>0.74371099324770396</v>
       </c>
     </row>
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.56743721935805702</v>
+      </c>
+      <c r="C27">
+        <v>0.55038244097106703</v>
+      </c>
+      <c r="D27">
+        <v>0.56990358126721696</v>
+      </c>
+      <c r="E27">
+        <v>0.55997293182202601</v>
+      </c>
+      <c r="F27">
+        <v>0.56588935239006999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28">
+        <v>101</v>
+      </c>
+      <c r="B28">
+        <v>0.59288208880758297</v>
+      </c>
+      <c r="C28">
+        <v>0.56634519454605903</v>
+      </c>
+      <c r="D28">
+        <v>0.59817351598173496</v>
+      </c>
+      <c r="E28">
+        <v>0.58182439357704097</v>
+      </c>
+      <c r="F28">
+        <v>0.59152483501215702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29">
+        <v>201</v>
+      </c>
+      <c r="B29">
+        <v>0.59454515217029702</v>
+      </c>
+      <c r="C29">
+        <v>0.50049883604921797</v>
+      </c>
+      <c r="D29">
+        <v>0.61655059401884404</v>
+      </c>
+      <c r="E29">
+        <v>0.55249632892804701</v>
+      </c>
+      <c r="F29">
+        <v>0.58922558922558899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30">
+        <v>301</v>
+      </c>
+      <c r="B30">
+        <v>0.58889073673706904</v>
+      </c>
+      <c r="C30">
+        <v>0.54705686730961001</v>
+      </c>
+      <c r="D30">
+        <v>0.59709618874773096</v>
+      </c>
+      <c r="E30">
+        <v>0.57098229781325904</v>
+      </c>
+      <c r="F30">
+        <v>0.586369145219933</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31">
+        <v>401</v>
+      </c>
+      <c r="B31">
+        <v>0.58440046565774095</v>
+      </c>
+      <c r="C31">
+        <v>0.49916860658463502</v>
+      </c>
+      <c r="D31">
+        <v>0.60184442662389703</v>
+      </c>
+      <c r="E31">
+        <v>0.54571896018905597</v>
+      </c>
+      <c r="F31">
+        <v>0.57806362165909198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32">
+        <v>501</v>
+      </c>
+      <c r="B32">
+        <v>0.61051056045235297</v>
+      </c>
+      <c r="C32">
+        <v>0.512138343864316</v>
+      </c>
+      <c r="D32">
+        <v>0.63768115942028902</v>
+      </c>
+      <c r="E32">
+        <v>0.56805606787163399</v>
+      </c>
+      <c r="F32">
+        <v>0.60787874003315601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>601</v>
+      </c>
+      <c r="B33">
+        <v>0.62714119407949398</v>
+      </c>
+      <c r="C33">
+        <v>0.66012637179913503</v>
+      </c>
+      <c r="D33">
+        <v>0.61934477379095099</v>
+      </c>
+      <c r="E33">
+        <v>0.63908564069542795</v>
+      </c>
+      <c r="F33">
+        <v>0.62709294244013403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>701</v>
+      </c>
+      <c r="B34">
+        <v>0.62431398636288005</v>
+      </c>
+      <c r="C34">
+        <v>0.55404057199866896</v>
+      </c>
+      <c r="D34">
+        <v>0.64473684210526305</v>
+      </c>
+      <c r="E34">
+        <v>0.59595778930423804</v>
+      </c>
+      <c r="F34">
+        <v>0.62429738439631199</v>
+      </c>
+    </row>
     <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>5</v>
+      <c r="A35">
+        <v>801</v>
+      </c>
+      <c r="B35">
+        <v>0.634458672875436</v>
+      </c>
+      <c r="C35">
+        <v>0.61157299634186901</v>
+      </c>
+      <c r="D35">
+        <v>0.64098989194841405</v>
+      </c>
+      <c r="E35">
+        <v>0.62593601089176298</v>
+      </c>
+      <c r="F35">
+        <v>0.63488227577159395</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>1</v>
+        <v>901</v>
       </c>
       <c r="B36">
-        <v>0.56743721935805702</v>
+        <v>0.63894894395476398</v>
       </c>
       <c r="C36">
-        <v>0.55038244097106703</v>
+        <v>0.60226139008978996</v>
       </c>
       <c r="D36">
-        <v>0.56990358126721696</v>
+        <v>0.650035893754486</v>
       </c>
       <c r="E36">
-        <v>0.55997293182202601</v>
+        <v>0.62523735542896597</v>
       </c>
       <c r="F36">
-        <v>0.56588935239006999</v>
+        <v>0.63988410713023802</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>101</v>
+        <v>1001</v>
       </c>
       <c r="B37">
-        <v>0.59288208880758297</v>
+        <v>0.58040911358722702</v>
       </c>
       <c r="C37">
-        <v>0.56634519454605903</v>
+        <v>0.27302959760558698</v>
       </c>
       <c r="D37">
-        <v>0.59817351598173496</v>
+        <v>0.70898100172711498</v>
       </c>
       <c r="E37">
-        <v>0.58182439357704097</v>
+        <v>0.39423769507803103</v>
       </c>
       <c r="F37">
-        <v>0.59152483501215702</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>201</v>
-      </c>
-      <c r="B38">
-        <v>0.59454515217029702</v>
-      </c>
-      <c r="C38">
-        <v>0.50049883604921797</v>
-      </c>
-      <c r="D38">
-        <v>0.61655059401884404</v>
-      </c>
-      <c r="E38">
-        <v>0.55249632892804701</v>
-      </c>
-      <c r="F38">
-        <v>0.58922558922558899</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>301</v>
-      </c>
-      <c r="B39">
-        <v>0.58889073673706904</v>
-      </c>
-      <c r="C39">
-        <v>0.54705686730961001</v>
-      </c>
-      <c r="D39">
-        <v>0.59709618874773096</v>
-      </c>
-      <c r="E39">
-        <v>0.57098229781325904</v>
-      </c>
-      <c r="F39">
-        <v>0.586369145219933</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>401</v>
-      </c>
-      <c r="B40">
-        <v>0.58440046565774095</v>
-      </c>
-      <c r="C40">
-        <v>0.49916860658463502</v>
-      </c>
-      <c r="D40">
-        <v>0.60184442662389703</v>
-      </c>
-      <c r="E40">
-        <v>0.54571896018905597</v>
-      </c>
-      <c r="F40">
-        <v>0.57806362165909198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>501</v>
-      </c>
-      <c r="B41">
-        <v>0.61051056045235297</v>
-      </c>
-      <c r="C41">
-        <v>0.512138343864316</v>
-      </c>
-      <c r="D41">
-        <v>0.63768115942028902</v>
-      </c>
-      <c r="E41">
-        <v>0.56805606787163399</v>
-      </c>
-      <c r="F41">
-        <v>0.60787874003315601</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>601</v>
-      </c>
-      <c r="B42">
-        <v>0.62714119407949398</v>
-      </c>
-      <c r="C42">
-        <v>0.66012637179913503</v>
-      </c>
-      <c r="D42">
-        <v>0.61934477379095099</v>
-      </c>
-      <c r="E42">
-        <v>0.63908564069542795</v>
-      </c>
-      <c r="F42">
-        <v>0.62709294244013403</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>701</v>
-      </c>
-      <c r="B43">
-        <v>0.62431398636288005</v>
-      </c>
-      <c r="C43">
-        <v>0.55404057199866896</v>
-      </c>
-      <c r="D43">
-        <v>0.64473684210526305</v>
-      </c>
-      <c r="E43">
-        <v>0.59595778930423804</v>
-      </c>
-      <c r="F43">
-        <v>0.62429738439631199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>801</v>
-      </c>
-      <c r="B44">
-        <v>0.634458672875436</v>
-      </c>
-      <c r="C44">
-        <v>0.61157299634186901</v>
-      </c>
-      <c r="D44">
-        <v>0.64098989194841405</v>
-      </c>
-      <c r="E44">
-        <v>0.62593601089176298</v>
-      </c>
-      <c r="F44">
-        <v>0.63488227577159395</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>901</v>
-      </c>
-      <c r="B45">
-        <v>0.63894894395476398</v>
-      </c>
-      <c r="C45">
-        <v>0.60226139008978996</v>
-      </c>
-      <c r="D45">
-        <v>0.650035893754486</v>
-      </c>
-      <c r="E45">
-        <v>0.62523735542896597</v>
-      </c>
-      <c r="F45">
-        <v>0.63988410713023802</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>1001</v>
-      </c>
-      <c r="B46">
-        <v>0.58040911358722702</v>
-      </c>
-      <c r="C46">
-        <v>0.27302959760558698</v>
-      </c>
-      <c r="D46">
-        <v>0.70898100172711498</v>
-      </c>
-      <c r="E46">
-        <v>0.39423769507803103</v>
-      </c>
-      <c r="F46">
         <v>0.53737400183270001</v>
       </c>
     </row>

--- a/project/data/DT_out/analysis.xlsx
+++ b/project/data/DT_out/analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="187">
   <si>
     <t>Equal-Equal Size of Forest Test</t>
   </si>
@@ -36,13 +36,550 @@
     <t>F1</t>
   </si>
   <si>
-    <t>F0.5</t>
-  </si>
-  <si>
     <t>SkewedSkewed</t>
   </si>
   <si>
-    <t>Percent of Training Set</t>
+    <t>Squewed Bin</t>
+  </si>
+  <si>
+    <t>Yes Occurances</t>
+  </si>
+  <si>
+    <t>No Occurances</t>
+  </si>
+  <si>
+    <t>Optional Support&gt;50.0</t>
+  </si>
+  <si>
+    <t>Optional Support&lt;=50.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;225.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;325.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=225.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=325.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;275.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=275.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;350.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=350.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;175.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=250.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;250.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=175.0</t>
+  </si>
+  <si>
+    <t>Optional Support&gt;150.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;300.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=300.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;375.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=375.0</t>
+  </si>
+  <si>
+    <t>Optional Support&lt;=150.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;600.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=425.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=600.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;200.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=500.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=400.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=200.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;500.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;400.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;425.0</t>
+  </si>
+  <si>
+    <t>Optional Support&gt;100.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=550.0</t>
+  </si>
+  <si>
+    <t>Optional Support&lt;=100.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;800.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;550.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;475.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=475.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=800.0</t>
+  </si>
+  <si>
+    <t>Optional Support&gt;200.0</t>
+  </si>
+  <si>
+    <t>Optional Support&lt;=200.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=650.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;650.0</t>
+  </si>
+  <si>
+    <t>Date Posted&lt;=4600.0</t>
+  </si>
+  <si>
+    <t>Date Posted&gt;4200.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=625.0</t>
+  </si>
+  <si>
+    <t>Longitude&gt;-78.0</t>
+  </si>
+  <si>
+    <t>Latitude&gt;38.0</t>
+  </si>
+  <si>
+    <t>Prev Project By School&lt;=9.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=900.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;900.0</t>
+  </si>
+  <si>
+    <t>Month Posted&gt;8.0</t>
+  </si>
+  <si>
+    <t>Date Posted&gt;4600.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=675.0</t>
+  </si>
+  <si>
+    <t>Date Posted&lt;=3100.0</t>
+  </si>
+  <si>
+    <t>Optional Support&gt;250.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=450.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;450.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;625.0</t>
+  </si>
+  <si>
+    <t>Optional Support&gt;300.0</t>
+  </si>
+  <si>
+    <t>Date Posted&lt;=4200.0</t>
+  </si>
+  <si>
+    <t>Date Posted&gt;3100.0</t>
+  </si>
+  <si>
+    <t>Month Posted&lt;=9.0</t>
+  </si>
+  <si>
+    <t>Optional Support&lt;=250.0</t>
+  </si>
+  <si>
+    <t>Prev Project By School&gt;9.0</t>
+  </si>
+  <si>
+    <t>Longitude&lt;=-78.0</t>
+  </si>
+  <si>
+    <t>Month Posted&lt;=8.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;675.0</t>
+  </si>
+  <si>
+    <t>Optional Support&lt;=300.0</t>
+  </si>
+  <si>
+    <t>Latitude&lt;=38.0</t>
+  </si>
+  <si>
+    <t>Month Posted&gt;9.0</t>
+  </si>
+  <si>
+    <t>Latitude&lt;=33.0</t>
+  </si>
+  <si>
+    <t>Latitude&lt;=30.0</t>
+  </si>
+  <si>
+    <t>Latitude&lt;=34.0</t>
+  </si>
+  <si>
+    <t>Month Posted&lt;=11.0</t>
+  </si>
+  <si>
+    <t>Year Posted&lt;=12.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=575.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=750.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=700.0</t>
+  </si>
+  <si>
+    <t>Date Posted&lt;=3500.0</t>
+  </si>
+  <si>
+    <t>Longitude&gt;-110.0</t>
+  </si>
+  <si>
+    <t>School Charter = t</t>
+  </si>
+  <si>
+    <t>Date Posted&lt;=4900.0</t>
+  </si>
+  <si>
+    <t>Date Posted&gt;2900.0</t>
+  </si>
+  <si>
+    <t>Month Posted&gt;11.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;700.0</t>
+  </si>
+  <si>
+    <t>Date Posted&gt;3500.0</t>
+  </si>
+  <si>
+    <t>Students Reached&lt;=40.0</t>
+  </si>
+  <si>
+    <t>Prev Project By School&lt;=15.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;950.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=875.0</t>
+  </si>
+  <si>
+    <t>Month Posted&lt;=3.0</t>
+  </si>
+  <si>
+    <t>Date Posted&lt;=4100.0</t>
+  </si>
+  <si>
+    <t>Prev Projects By Teacher&lt;=6.0</t>
+  </si>
+  <si>
+    <t>Students Reached&gt;90.0</t>
+  </si>
+  <si>
+    <t>Month Posted&gt;3.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=825.0</t>
+  </si>
+  <si>
+    <t>Prev Projects By Teacher&gt;1.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=725.0</t>
+  </si>
+  <si>
+    <t>Latitude&lt;=40.0</t>
+  </si>
+  <si>
+    <t>Longitude&lt;=-110.0</t>
+  </si>
+  <si>
+    <t>Optional Support&lt;=550.0</t>
+  </si>
+  <si>
+    <t>Prev Project By School&lt;=1.0</t>
+  </si>
+  <si>
+    <t>Students Reached&lt;=50.0</t>
+  </si>
+  <si>
+    <t>Month Posted&lt;=7.0</t>
+  </si>
+  <si>
+    <t>Longitude&gt;-98.0</t>
+  </si>
+  <si>
+    <t>Latitude&gt;34.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=1000.0</t>
+  </si>
+  <si>
+    <t>Students Reached&gt;40.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;575.0</t>
+  </si>
+  <si>
+    <t>Latitude&lt;=37.0</t>
+  </si>
+  <si>
+    <t>Prev Projects By Teacher&gt;6.0</t>
+  </si>
+  <si>
+    <t>Date Posted&lt;=3800.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;1000.0</t>
+  </si>
+  <si>
+    <t>Prev Projects By Teacher&lt;=1.0</t>
+  </si>
+  <si>
+    <t>School Charter = f</t>
+  </si>
+  <si>
+    <t>Students Reached&lt;=90.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;775.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=950.0</t>
+  </si>
+  <si>
+    <t>Students Reached&gt;20.0</t>
+  </si>
+  <si>
+    <t>Optional Support&gt;550.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=775.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;825.0</t>
+  </si>
+  <si>
+    <t>Latitude&gt;30.0</t>
+  </si>
+  <si>
+    <t>Date Posted&gt;3200.0</t>
+  </si>
+  <si>
+    <t>Date Posted&lt;=2900.0</t>
+  </si>
+  <si>
+    <t>Date Posted&gt;3800.0</t>
+  </si>
+  <si>
+    <t>Longitude&lt;=-98.0</t>
+  </si>
+  <si>
+    <t>Prev Project By School&lt;=3.0</t>
+  </si>
+  <si>
+    <t>Prev Project By School&gt;15.0</t>
+  </si>
+  <si>
+    <t>Longitude&lt;=-84.0</t>
+  </si>
+  <si>
+    <t>Prev Project By School&gt;1.0</t>
+  </si>
+  <si>
+    <t>Prev Project By School&gt;3.0</t>
+  </si>
+  <si>
+    <t>Month Posted&gt;7.0</t>
+  </si>
+  <si>
+    <t>Prev Project By School&lt;=6.0</t>
+  </si>
+  <si>
+    <t>Date Posted&gt;4100.0</t>
+  </si>
+  <si>
+    <t>Students Reached&lt;=20.0</t>
+  </si>
+  <si>
+    <t>Students Reached&gt;160.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;750.0</t>
+  </si>
+  <si>
+    <t>Total Price&lt;=525.0</t>
+  </si>
+  <si>
+    <t>Prev Projects By Teacher&lt;=2.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;725.0</t>
+  </si>
+  <si>
+    <t>Prev Projects By Teacher&gt;2.0</t>
+  </si>
+  <si>
+    <t>Latitude&gt;40.0</t>
+  </si>
+  <si>
+    <t>Students Reached&lt;=160.0</t>
+  </si>
+  <si>
+    <t>Date Posted&lt;=3200.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;525.0</t>
+  </si>
+  <si>
+    <t>Latitude&gt;33.0</t>
+  </si>
+  <si>
+    <t>Prev Project By School&gt;6.0</t>
+  </si>
+  <si>
+    <t>Total Price&gt;875.0</t>
+  </si>
+  <si>
+    <t>Longitude&gt;-84.0</t>
+  </si>
+  <si>
+    <t>Students Reached&gt;50.0</t>
+  </si>
+  <si>
+    <t>Latitude&gt;37.0</t>
+  </si>
+  <si>
+    <t>Date Posted&gt;4900.0</t>
+  </si>
+  <si>
+    <t>Year Posted&gt;12.0</t>
+  </si>
+  <si>
+    <t>Forest size 201 (72.13% accuracy) depth 1 Attributes</t>
+  </si>
+  <si>
+    <t>Optional Support</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Date Posted</t>
+  </si>
+  <si>
+    <t>Prev Project By School</t>
+  </si>
+  <si>
+    <t>Month Posted</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Year Posted</t>
+  </si>
+  <si>
+    <t>Students Reached</t>
+  </si>
+  <si>
+    <t>Prev Projects By Teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible For Double Your Impact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">School Charter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teach For America </t>
+  </si>
+  <si>
+    <t xml:space="preserve">School Magnet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible Almost Home Match </t>
+  </si>
+  <si>
+    <t xml:space="preserve">School Year Round </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher NY Teaching Fellow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">School Nlns </t>
+  </si>
+  <si>
+    <t>Forest size 201  depth 1 Attributes</t>
+  </si>
+  <si>
+    <t>Attributes on 201 trees</t>
+  </si>
+  <si>
+    <t>Depth = 1 - Primary Split</t>
+  </si>
+  <si>
+    <t>Depth = 2 - Secondary Split</t>
+  </si>
+  <si>
+    <t>Depth = 3 - Terciary Split</t>
   </si>
 </sst>
 </file>
@@ -94,8 +631,158 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -164,7 +851,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="215">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -197,6 +884,81 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -229,6 +991,81 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -237,664 +1074,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Metrics on Random</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Forest, Original Data</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Recall</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:gradFill flip="none" rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:gs>
-                  <a:gs pos="58000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$13:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>301.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>401.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>501.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$13:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.723471287412287</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.780323643133323</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.827581268795646</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.897751682657883</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.948589431476442</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.983101818702563</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.985106687670055</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99713590147501</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99985679507375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$13:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>301.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>401.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>501.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$13:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.728899148751983</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72876822254915</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.735709739019732</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.720657546844464</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.711951848667239</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.706057801090198</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.706625577812018</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.700926112341453</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.699178850390546</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.698929036132519</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.698929036132519</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$13:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>301.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>401.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>501.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$13:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.726175075463562</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.753665283540802</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.778945949588893</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.799515367937763</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.813409467673604</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.821860409433736</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.822945328388563</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.823195602057102</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.82291236961518</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.822787793095322</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.822787793095322</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$13:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>301.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>401.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>501.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$13:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.618656791112</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.643479131218096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.671704534080672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.685316785106595</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.695826243619257</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.702131918726854</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.703733360024021</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.700630567510759</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.699229306375738</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.698929036132519</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.698929036132519</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2080555400"/>
-        <c:axId val="-2080580568"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2080555400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="501.0"/>
-          <c:min val="0.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Size of Forest (Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Decision Trees)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080580568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2080580568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.6"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Metric</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Value</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080555400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1346,11 +1525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079646808"/>
-        <c:axId val="-2079632952"/>
+        <c:axId val="-2125164424"/>
+        <c:axId val="-2125173432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2079646808"/>
+        <c:axId val="-2125164424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1001.0"/>
@@ -1386,12 +1565,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079632952"/>
+        <c:crossAx val="-2125173432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2079632952"/>
+        <c:axId val="-2125173432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.75"/>
@@ -1428,7 +1607,476 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079646808"/>
+        <c:crossAx val="-2125164424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Metrics on Random Forest, Bin Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$41:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>301.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.7101906263437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.791887630786871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.842195786154507</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.874014619463953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.938225598394725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.930199226028379</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.956571592374946</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.961158090870001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$41:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>301.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$41:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.73461823573017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.748949437440694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.744457113898391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.750430716219542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.734350459950639</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.738003183989083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.730356752024513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.723408845738942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$41:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>301.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$41:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.722197930330855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.769820259161209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.790316072629455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.807521684433556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82386256371531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.823029611311901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82829661805771</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.825506247307195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$41:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>301.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.617997795370277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.668904699869726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.687543842068343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.708688245315161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.719510973043391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.720312656578815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.722717707185088</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.715903397133981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2050081928"/>
+        <c:axId val="-2050085096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2050081928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="301.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size of Forest (# Trees)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2050085096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2050085096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Metric Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2050081928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1475,11 +2123,20 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Metrics on Random</a:t>
+              <a:t>Metrics on Random Forest, Original</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Forest, Original Data, vs Percent of Training Sample Used</a:t>
+              <a:t> Data </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>vs Forest Size</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1499,7 +2156,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$15</c:f>
+              <c:f>Sheet1!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1510,48 +2167,72 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$16:$P$20</c:f>
+              <c:f>Sheet1!$A$13:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400.0</c:v>
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>301.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$16:$R$20</c:f>
+              <c:f>Sheet1!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.723471287412287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.983388228555062</c:v>
+                  <c:v>0.780323643133323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.980667334956322</c:v>
+                  <c:v>0.827581268795646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.977087211800086</c:v>
+                  <c:v>0.897751682657883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.985679507375053</c:v>
+                  <c:v>0.948589431476442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.983101818702563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.985106687670055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99713590147501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99985679507375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1563,7 +2244,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$15</c:f>
+              <c:f>Sheet1!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1574,48 +2255,72 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$16:$P$20</c:f>
+              <c:f>Sheet1!$A$13:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400.0</c:v>
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>301.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$16:$S$20</c:f>
+              <c:f>Sheet1!$D$13:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.698929036132519</c:v>
+                  <c:v>0.728899148751983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.703946694003075</c:v>
+                  <c:v>0.72876822254915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.707291881842594</c:v>
+                  <c:v>0.735709739019732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.707486520116134</c:v>
+                  <c:v>0.720657546844464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.707327098962079</c:v>
+                  <c:v>0.711951848667239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.706057801090198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.706625577812018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.700926112341453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.699178850390546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,7 +2332,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$15</c:f>
+              <c:f>Sheet1!$E$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1638,48 +2343,72 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$16:$P$20</c:f>
+              <c:f>Sheet1!$A$13:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400.0</c:v>
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>301.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$16:$T$20</c:f>
+              <c:f>Sheet1!$E$13:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.822787793095322</c:v>
+                  <c:v>0.726175075463562</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.820528139562671</c:v>
+                  <c:v>0.753665283540802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.821842184218421</c:v>
+                  <c:v>0.778945949588893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.820713297648403</c:v>
+                  <c:v>0.799515367937763</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.823620916596864</c:v>
+                  <c:v>0.813409467673604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.821860409433736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.822945328388563</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.823195602057102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82291236961518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,7 +2420,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$15</c:f>
+              <c:f>Sheet1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1702,48 +2431,72 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$16:$P$20</c:f>
+              <c:f>Sheet1!$A$13:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400.0</c:v>
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>301.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$16:$Q$20</c:f>
+              <c:f>Sheet1!$B$13:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.698929036132519</c:v>
+                  <c:v>0.618656791112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.699329396456811</c:v>
+                  <c:v>0.643479131218096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.702832549294364</c:v>
+                  <c:v>0.671704534080672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.701631468321489</c:v>
+                  <c:v>0.685316785106595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.704934440996897</c:v>
+                  <c:v>0.695826243619257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.702131918726854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.703733360024021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.700630567510759</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.699229306375738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,13 +2511,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2077488632"/>
-        <c:axId val="2039033240"/>
+        <c:axId val="-2046144952"/>
+        <c:axId val="-2046018408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2077488632"/>
+        <c:axId val="-2046144952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="301.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1779,8 +2534,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percent of Training Sample Used (%)</a:t>
+                  <a:t>Size</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Forest (# Trees)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1791,16 +2551,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2039033240"/>
+        <c:crossAx val="-2046018408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039033240"/>
+        <c:axId val="-2046018408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
-          <c:min val="0.65"/>
+          <c:min val="0.6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1816,8 +2576,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Metric Value</a:t>
+                  <a:t>Metric</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1828,7 +2593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077488632"/>
+        <c:crossAx val="-2046144952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1850,38 +2615,537 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Random Forest (size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 201) Total Attributes by Depth</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Depth = 1 - Primary Split</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$U$6:$U$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Total Price</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Month Posted</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Date Posted</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Longitude</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Students Reached</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Latitude</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prev Project By School</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Optional Support</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year Posted</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prev Projects By Teacher</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Eligible For Double Your Impact </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>School Magnet </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>School Charter </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Teach For America </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Eligible Almost Home Match </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>School Year Round </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Teacher NY Teaching Fellow </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>School Nlns </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$6:$V$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Depth = 2 - Secondary Split</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$U$6:$U$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Total Price</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Month Posted</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Date Posted</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Longitude</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Students Reached</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Latitude</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prev Project By School</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Optional Support</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year Posted</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prev Projects By Teacher</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Eligible For Double Your Impact </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>School Magnet </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>School Charter </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Teach For America </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Eligible Almost Home Match </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>School Year Round </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Teacher NY Teaching Fellow </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>School Nlns </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$6:$W$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Depth = 3 - Terciary Split</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$U$6:$U$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Total Price</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Month Posted</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Date Posted</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Longitude</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Students Reached</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Latitude</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prev Project By School</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Optional Support</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year Posted</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prev Projects By Teacher</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Eligible For Double Your Impact </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>School Magnet </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>School Charter </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Teach For America </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Eligible Almost Home Match </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>School Year Round </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Teacher NY Teaching Fellow </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>School Nlns </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$6:$X$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2049909000"/>
+        <c:axId val="-2049691672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2049909000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2049691672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2049691672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Occurances among Trees</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2049909000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1906,6 +3170,36 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
@@ -1914,20 +3208,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1937,6 +3231,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2267,17 +3591,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A12:U37"/>
+  <dimension ref="A4:Y159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="17" max="17" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="12" spans="1:21">
+    <row r="4" spans="1:25">
+      <c r="Q4" t="s">
+        <v>163</v>
+      </c>
+      <c r="U4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="R5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" t="s">
+        <v>183</v>
+      </c>
+      <c r="V5" t="s">
+        <v>184</v>
+      </c>
+      <c r="W5" t="s">
+        <v>185</v>
+      </c>
+      <c r="X5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="Q6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>12</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>165</v>
+      </c>
+      <c r="V6">
+        <v>128</v>
+      </c>
+      <c r="W6">
+        <v>46</v>
+      </c>
+      <c r="X6">
+        <v>58</v>
+      </c>
+      <c r="Y6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="Q7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>12</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>168</v>
+      </c>
+      <c r="V7">
+        <v>11</v>
+      </c>
+      <c r="W7">
+        <v>43</v>
+      </c>
+      <c r="X7">
+        <v>76</v>
+      </c>
+      <c r="Y7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="Q8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <v>11</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>166</v>
+      </c>
+      <c r="V8">
+        <v>13</v>
+      </c>
+      <c r="W8">
+        <v>47</v>
+      </c>
+      <c r="X8">
+        <v>59</v>
+      </c>
+      <c r="Y8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>169</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>46</v>
+      </c>
+      <c r="X9">
+        <v>65</v>
+      </c>
+      <c r="Y9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="Q10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>172</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>43</v>
+      </c>
+      <c r="X10">
+        <v>59</v>
+      </c>
+      <c r="Y10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="Q11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>170</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
+        <v>31</v>
+      </c>
+      <c r="X11">
+        <v>57</v>
+      </c>
+      <c r="Y11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2291,11 +3803,32 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
+      <c r="Q12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>167</v>
+      </c>
+      <c r="V12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="W12">
+        <v>28</v>
+      </c>
+      <c r="X12">
+        <v>46</v>
+      </c>
+      <c r="Y12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2311,11 +3844,32 @@
       <c r="E13">
         <v>0.72617507546356197</v>
       </c>
-      <c r="F13">
-        <v>0.72780707061975902</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="Q13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>164</v>
+      </c>
+      <c r="V13">
+        <v>21</v>
+      </c>
+      <c r="W13">
+        <v>11</v>
+      </c>
+      <c r="X13">
+        <v>19</v>
+      </c>
+      <c r="Y13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2331,11 +3885,32 @@
       <c r="E14">
         <v>0.75366528354080198</v>
       </c>
-      <c r="F14">
-        <v>0.73852701200834803</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="Q14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>171</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>11</v>
+      </c>
+      <c r="X14">
+        <v>24</v>
+      </c>
+      <c r="Y14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -2351,29 +3926,29 @@
       <c r="E15">
         <v>0.77894594958889296</v>
       </c>
-      <c r="F15">
-        <v>0.752415175897716</v>
-      </c>
-      <c r="P15" t="s">
-        <v>7</v>
-      </c>
       <c r="Q15" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" t="s">
-        <v>2</v>
-      </c>
-      <c r="T15" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="R15">
+        <v>8</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>173</v>
+      </c>
+      <c r="W15">
+        <v>15</v>
+      </c>
+      <c r="X15">
+        <v>11</v>
+      </c>
+      <c r="Y15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2389,29 +3964,32 @@
       <c r="E16">
         <v>0.79951536793776301</v>
       </c>
-      <c r="F16">
-        <v>0.75025730630220899</v>
-      </c>
-      <c r="P16">
-        <v>25</v>
-      </c>
-      <c r="Q16">
-        <v>0.698929036132519</v>
+      <c r="Q16" t="s">
+        <v>19</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S16">
-        <v>0.698929036132519</v>
-      </c>
-      <c r="T16">
-        <v>0.82278779309532202</v>
-      </c>
-      <c r="U16">
-        <v>0.74371099324770396</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>174</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>9</v>
+      </c>
+      <c r="X16">
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>21</v>
       </c>
@@ -2427,29 +4005,29 @@
       <c r="E17">
         <v>0.813409467673604</v>
       </c>
-      <c r="F17">
-        <v>0.74933822032172603</v>
-      </c>
-      <c r="P17">
-        <v>50</v>
-      </c>
-      <c r="Q17">
-        <v>0.69932939645681103</v>
+      <c r="Q17" t="s">
+        <v>20</v>
       </c>
       <c r="R17">
-        <v>0.98338822855506203</v>
+        <v>7</v>
       </c>
       <c r="S17">
-        <v>0.70394669400307497</v>
-      </c>
-      <c r="T17">
-        <v>0.82052813956267101</v>
-      </c>
-      <c r="U17">
-        <v>0.74636436754124702</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>177</v>
+      </c>
+      <c r="W17">
+        <v>6</v>
+      </c>
+      <c r="X17">
+        <v>11</v>
+      </c>
+      <c r="Y17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>51</v>
       </c>
@@ -2465,29 +4043,32 @@
       <c r="E18">
         <v>0.82186040943373595</v>
       </c>
-      <c r="F18">
-        <v>0.74822888283378697</v>
-      </c>
-      <c r="P18">
-        <v>100</v>
-      </c>
-      <c r="Q18">
-        <v>0.70283254929436401</v>
+      <c r="Q18" t="s">
+        <v>21</v>
       </c>
       <c r="R18">
-        <v>0.98066733495632197</v>
+        <v>7</v>
       </c>
       <c r="S18">
-        <v>0.70729188184259395</v>
-      </c>
-      <c r="T18">
-        <v>0.82184218421842103</v>
-      </c>
-      <c r="U18">
-        <v>0.74905383824462302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
+        <v>175</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <v>9</v>
+      </c>
+      <c r="Y18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>101</v>
       </c>
@@ -2503,29 +4084,29 @@
       <c r="E19">
         <v>0.82294532838856305</v>
       </c>
-      <c r="F19">
-        <v>0.74897110380419396</v>
-      </c>
-      <c r="P19">
-        <v>200</v>
-      </c>
-      <c r="Q19">
-        <v>0.70163146832148904</v>
+      <c r="Q19" t="s">
+        <v>22</v>
       </c>
       <c r="R19">
-        <v>0.97708721180008595</v>
+        <v>7</v>
       </c>
       <c r="S19">
-        <v>0.707486520116134</v>
-      </c>
-      <c r="T19">
-        <v>0.82071329764840295</v>
-      </c>
-      <c r="U19">
-        <v>0.74880923637481001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>176</v>
+      </c>
+      <c r="W19">
+        <v>10</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>201</v>
       </c>
@@ -2541,29 +4122,29 @@
       <c r="E20">
         <v>0.82319560205710196</v>
       </c>
-      <c r="F20">
-        <v>0.74520002568548105</v>
-      </c>
-      <c r="P20">
-        <v>400</v>
-      </c>
-      <c r="Q20">
-        <v>0.70493444099689695</v>
+      <c r="Q20" t="s">
+        <v>23</v>
       </c>
       <c r="R20">
-        <v>0.98567950737505305</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0.70732709896207902</v>
-      </c>
-      <c r="T20">
-        <v>0.82362091659686398</v>
-      </c>
-      <c r="U20">
-        <v>0.74966780665258004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>6</v>
+      </c>
+      <c r="U20" t="s">
+        <v>178</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <v>7</v>
+      </c>
+      <c r="Y20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>301</v>
       </c>
@@ -2579,51 +4160,91 @@
       <c r="E21">
         <v>0.82291236961517999</v>
       </c>
-      <c r="F21">
-        <v>0.74392140984933997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22">
-        <v>401</v>
-      </c>
-      <c r="B22">
-        <v>0.698929036132519</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0.698929036132519</v>
-      </c>
-      <c r="E22">
-        <v>0.82278779309532202</v>
-      </c>
-      <c r="F22">
-        <v>0.74371099324770396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23">
-        <v>501</v>
-      </c>
-      <c r="B23">
-        <v>0.698929036132519</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0.698929036132519</v>
-      </c>
-      <c r="E23">
-        <v>0.82278779309532202</v>
-      </c>
-      <c r="F23">
-        <v>0.74371099324770396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="Q21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
+        <v>179</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="Q22" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22">
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>180</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="Q23" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>181</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24">
+        <v>6</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="Q25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2639,11 +4260,17 @@
       <c r="E26" t="s">
         <v>4</v>
       </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="Q26" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2659,11 +4286,17 @@
       <c r="E27">
         <v>0.55997293182202601</v>
       </c>
-      <c r="F27">
-        <v>0.56588935239006999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="Q27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28">
         <v>101</v>
       </c>
@@ -2679,11 +4312,17 @@
       <c r="E28">
         <v>0.58182439357704097</v>
       </c>
-      <c r="F28">
-        <v>0.59152483501215702</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="Q28" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29">
         <v>201</v>
       </c>
@@ -2699,11 +4338,17 @@
       <c r="E29">
         <v>0.55249632892804701</v>
       </c>
-      <c r="F29">
-        <v>0.58922558922558899</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="Q29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30">
         <v>301</v>
       </c>
@@ -2719,11 +4364,17 @@
       <c r="E30">
         <v>0.57098229781325904</v>
       </c>
-      <c r="F30">
-        <v>0.586369145219933</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="Q30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31">
         <v>401</v>
       </c>
@@ -2739,11 +4390,17 @@
       <c r="E31">
         <v>0.54571896018905597</v>
       </c>
-      <c r="F31">
-        <v>0.57806362165909198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="Q31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32">
         <v>501</v>
       </c>
@@ -2759,11 +4416,17 @@
       <c r="E32">
         <v>0.56805606787163399</v>
       </c>
-      <c r="F32">
-        <v>0.60787874003315601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="Q32" t="s">
+        <v>35</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>601</v>
       </c>
@@ -2779,11 +4442,17 @@
       <c r="E33">
         <v>0.63908564069542795</v>
       </c>
-      <c r="F33">
-        <v>0.62709294244013403</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="Q33" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>701</v>
       </c>
@@ -2799,11 +4468,17 @@
       <c r="E34">
         <v>0.59595778930423804</v>
       </c>
-      <c r="F34">
-        <v>0.62429738439631199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="Q34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>801</v>
       </c>
@@ -2819,11 +4494,17 @@
       <c r="E35">
         <v>0.62593601089176298</v>
       </c>
-      <c r="F35">
-        <v>0.63488227577159395</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="Q35" t="s">
+        <v>38</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>901</v>
       </c>
@@ -2839,11 +4520,17 @@
       <c r="E36">
         <v>0.62523735542896597</v>
       </c>
-      <c r="F36">
-        <v>0.63988410713023802</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="Q36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>1001</v>
       </c>
@@ -2859,11 +4546,1497 @@
       <c r="E37">
         <v>0.39423769507803103</v>
       </c>
-      <c r="F37">
-        <v>0.53737400183270001</v>
+      <c r="Q37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="Q38" t="s">
+        <v>41</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="Q39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0.61799779537027699</v>
+      </c>
+      <c r="C41">
+        <v>0.7101906263437</v>
+      </c>
+      <c r="D41">
+        <v>0.73461823573017004</v>
+      </c>
+      <c r="E41">
+        <v>0.722197930330855</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>44</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>0.668904699869726</v>
+      </c>
+      <c r="C42">
+        <v>0.79188763078687097</v>
+      </c>
+      <c r="D42">
+        <v>0.74894943744069398</v>
+      </c>
+      <c r="E42">
+        <v>0.769820259161209</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>0.68754384206834296</v>
+      </c>
+      <c r="C43">
+        <v>0.84219578615450696</v>
+      </c>
+      <c r="D43">
+        <v>0.74445711389839098</v>
+      </c>
+      <c r="E43">
+        <v>0.79031607262945502</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>46</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>0.70868824531516095</v>
+      </c>
+      <c r="C44">
+        <v>0.87401461946395298</v>
+      </c>
+      <c r="D44">
+        <v>0.75043071621954205</v>
+      </c>
+      <c r="E44">
+        <v>0.80752168443355599</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>47</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45">
+        <v>51</v>
+      </c>
+      <c r="B45">
+        <v>0.71951097304339096</v>
+      </c>
+      <c r="C45">
+        <v>0.93822559839472497</v>
+      </c>
+      <c r="D45">
+        <v>0.73435045995063897</v>
+      </c>
+      <c r="E45">
+        <v>0.82386256371530997</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>48</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46">
+        <v>101</v>
+      </c>
+      <c r="B46">
+        <v>0.72031265657881505</v>
+      </c>
+      <c r="C46">
+        <v>0.93019922602837901</v>
+      </c>
+      <c r="D46">
+        <v>0.73800318398908304</v>
+      </c>
+      <c r="E46">
+        <v>0.823029611311901</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47">
+        <v>201</v>
+      </c>
+      <c r="B47">
+        <v>0.72271770718508799</v>
+      </c>
+      <c r="C47">
+        <v>0.95657159237494604</v>
+      </c>
+      <c r="D47">
+        <v>0.730356752024513</v>
+      </c>
+      <c r="E47">
+        <v>0.82829661805771004</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>50</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48">
+        <v>301</v>
+      </c>
+      <c r="B48">
+        <v>0.71590339713398099</v>
+      </c>
+      <c r="C48">
+        <v>0.96115809087000104</v>
+      </c>
+      <c r="D48">
+        <v>0.72340884573894204</v>
+      </c>
+      <c r="E48">
+        <v>0.82550624730719502</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>51</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="17:19">
+      <c r="Q49" t="s">
+        <v>52</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="17:19">
+      <c r="Q50" t="s">
+        <v>53</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="17:19">
+      <c r="Q51" t="s">
+        <v>54</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="17:19">
+      <c r="Q52" t="s">
+        <v>55</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="17:19">
+      <c r="Q53" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="17:19">
+      <c r="Q54" t="s">
+        <v>57</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="17:19">
+      <c r="Q55" t="s">
+        <v>58</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="17:19">
+      <c r="Q56" t="s">
+        <v>59</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="17:19">
+      <c r="Q57" t="s">
+        <v>60</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="17:19">
+      <c r="Q58" t="s">
+        <v>61</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="17:19">
+      <c r="Q59" t="s">
+        <v>62</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="17:19">
+      <c r="Q60" t="s">
+        <v>63</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="17:19">
+      <c r="Q61" t="s">
+        <v>64</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="17:19">
+      <c r="Q62" t="s">
+        <v>65</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="17:19">
+      <c r="Q63" t="s">
+        <v>66</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="17:19">
+      <c r="Q64" t="s">
+        <v>67</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="17:19">
+      <c r="Q65" t="s">
+        <v>68</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="17:19">
+      <c r="Q66" t="s">
+        <v>69</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="17:19">
+      <c r="Q67" t="s">
+        <v>70</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="17:19">
+      <c r="Q68" t="s">
+        <v>71</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="17:19">
+      <c r="Q69" t="s">
+        <v>72</v>
+      </c>
+      <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="17:19">
+      <c r="Q70" t="s">
+        <v>73</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="17:19">
+      <c r="Q71" t="s">
+        <v>74</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="17:19">
+      <c r="Q72" t="s">
+        <v>75</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="17:19">
+      <c r="Q73" t="s">
+        <v>76</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="17:19">
+      <c r="Q74" t="s">
+        <v>77</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="17:19">
+      <c r="Q75" t="s">
+        <v>78</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="17:19">
+      <c r="Q76" t="s">
+        <v>79</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="17:19">
+      <c r="Q77" t="s">
+        <v>80</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="17:19">
+      <c r="Q78" t="s">
+        <v>81</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="17:19">
+      <c r="Q79" t="s">
+        <v>82</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="17:19">
+      <c r="Q80" t="s">
+        <v>83</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="17:19">
+      <c r="Q81" t="s">
+        <v>84</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="17:19">
+      <c r="Q82" t="s">
+        <v>85</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="17:19">
+      <c r="Q83" t="s">
+        <v>86</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="17:19">
+      <c r="Q84" t="s">
+        <v>87</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="17:19">
+      <c r="Q85" t="s">
+        <v>88</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="17:19">
+      <c r="Q86" t="s">
+        <v>89</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="17:19">
+      <c r="Q87" t="s">
+        <v>90</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="17:19">
+      <c r="Q88" t="s">
+        <v>91</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="17:19">
+      <c r="Q89" t="s">
+        <v>92</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="17:19">
+      <c r="Q90" t="s">
+        <v>93</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="17:19">
+      <c r="Q91" t="s">
+        <v>94</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="17:19">
+      <c r="Q92" t="s">
+        <v>95</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="17:19">
+      <c r="Q93" t="s">
+        <v>96</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="17:19">
+      <c r="Q94" t="s">
+        <v>97</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="17:19">
+      <c r="Q95" t="s">
+        <v>98</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="17:19">
+      <c r="Q96" t="s">
+        <v>99</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="17:19">
+      <c r="Q97" t="s">
+        <v>100</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="17:19">
+      <c r="Q98" t="s">
+        <v>101</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="17:19">
+      <c r="Q99" t="s">
+        <v>102</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="17:19">
+      <c r="Q100" t="s">
+        <v>103</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="17:19">
+      <c r="Q101" t="s">
+        <v>104</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="17:19">
+      <c r="Q102" t="s">
+        <v>105</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="17:19">
+      <c r="Q103" t="s">
+        <v>106</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="17:19">
+      <c r="Q104" t="s">
+        <v>107</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="17:19">
+      <c r="Q105" t="s">
+        <v>108</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="17:19">
+      <c r="Q106" t="s">
+        <v>109</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="17:19">
+      <c r="Q107" t="s">
+        <v>110</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="17:19">
+      <c r="Q108" t="s">
+        <v>111</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="17:19">
+      <c r="Q109" t="s">
+        <v>112</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="17:19">
+      <c r="Q110" t="s">
+        <v>113</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="17:19">
+      <c r="Q111" t="s">
+        <v>114</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="17:19">
+      <c r="Q112" t="s">
+        <v>115</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="17:19">
+      <c r="Q113" t="s">
+        <v>116</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="17:19">
+      <c r="Q114" t="s">
+        <v>117</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="17:19">
+      <c r="Q115" t="s">
+        <v>118</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="17:19">
+      <c r="Q116" t="s">
+        <v>119</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="17:19">
+      <c r="Q117" t="s">
+        <v>120</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="17:19">
+      <c r="Q118" t="s">
+        <v>121</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="17:19">
+      <c r="Q119" t="s">
+        <v>122</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="17:19">
+      <c r="Q120" t="s">
+        <v>123</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="17:19">
+      <c r="Q121" t="s">
+        <v>124</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="17:19">
+      <c r="Q122" t="s">
+        <v>125</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="17:19">
+      <c r="Q123" t="s">
+        <v>126</v>
+      </c>
+      <c r="R123">
+        <v>1</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="17:19">
+      <c r="Q124" t="s">
+        <v>127</v>
+      </c>
+      <c r="R124">
+        <v>1</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="17:19">
+      <c r="Q125" t="s">
+        <v>128</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="17:19">
+      <c r="Q126" t="s">
+        <v>129</v>
+      </c>
+      <c r="R126">
+        <v>1</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="17:19">
+      <c r="Q127" t="s">
+        <v>130</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="17:19">
+      <c r="Q128" t="s">
+        <v>131</v>
+      </c>
+      <c r="R128">
+        <v>1</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="17:19">
+      <c r="Q129" t="s">
+        <v>132</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="17:19">
+      <c r="Q130" t="s">
+        <v>133</v>
+      </c>
+      <c r="R130">
+        <v>1</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="17:19">
+      <c r="Q131" t="s">
+        <v>134</v>
+      </c>
+      <c r="R131">
+        <v>1</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="17:19">
+      <c r="Q132" t="s">
+        <v>135</v>
+      </c>
+      <c r="R132">
+        <v>1</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="17:19">
+      <c r="Q133" t="s">
+        <v>136</v>
+      </c>
+      <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="17:19">
+      <c r="Q134" t="s">
+        <v>137</v>
+      </c>
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="17:19">
+      <c r="Q135" t="s">
+        <v>138</v>
+      </c>
+      <c r="R135">
+        <v>1</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="17:19">
+      <c r="Q136" t="s">
+        <v>139</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="17:19">
+      <c r="Q137" t="s">
+        <v>140</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="17:19">
+      <c r="Q138" t="s">
+        <v>141</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="17:19">
+      <c r="Q139" t="s">
+        <v>142</v>
+      </c>
+      <c r="R139">
+        <v>1</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="17:19">
+      <c r="Q140" t="s">
+        <v>143</v>
+      </c>
+      <c r="R140">
+        <v>1</v>
+      </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="17:19">
+      <c r="Q141" t="s">
+        <v>144</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="17:19">
+      <c r="Q142" t="s">
+        <v>145</v>
+      </c>
+      <c r="R142">
+        <v>1</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="17:19">
+      <c r="Q143" t="s">
+        <v>146</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="17:19">
+      <c r="Q144" t="s">
+        <v>147</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="17:19">
+      <c r="Q145" t="s">
+        <v>148</v>
+      </c>
+      <c r="R145">
+        <v>1</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="17:19">
+      <c r="Q146" t="s">
+        <v>149</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="17:19">
+      <c r="Q147" t="s">
+        <v>150</v>
+      </c>
+      <c r="R147">
+        <v>1</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="17:19">
+      <c r="Q148" t="s">
+        <v>151</v>
+      </c>
+      <c r="R148">
+        <v>1</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="17:19">
+      <c r="Q149" t="s">
+        <v>152</v>
+      </c>
+      <c r="R149">
+        <v>1</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="17:19">
+      <c r="Q150" t="s">
+        <v>153</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="17:19">
+      <c r="Q151" t="s">
+        <v>154</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="17:19">
+      <c r="Q152" t="s">
+        <v>155</v>
+      </c>
+      <c r="R152">
+        <v>1</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="17:19">
+      <c r="Q153" t="s">
+        <v>156</v>
+      </c>
+      <c r="R153">
+        <v>1</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="17:19">
+      <c r="Q154" t="s">
+        <v>157</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="17:19">
+      <c r="Q155" t="s">
+        <v>158</v>
+      </c>
+      <c r="R155">
+        <v>1</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="17:19">
+      <c r="Q156" t="s">
+        <v>159</v>
+      </c>
+      <c r="R156">
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="17:19">
+      <c r="Q157" t="s">
+        <v>160</v>
+      </c>
+      <c r="R157">
+        <v>1</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="17:19">
+      <c r="Q158" t="s">
+        <v>161</v>
+      </c>
+      <c r="R158">
+        <v>1</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="17:19">
+      <c r="Q159" t="s">
+        <v>162</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="U6:Y23">
+    <sortCondition descending="1" ref="Y23"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
